--- a/Rév8-codes.xlsx
+++ b/Rév8-codes.xlsx
@@ -193,10 +193,10 @@
     <t>Közös terek használata</t>
   </si>
   <si>
-    <t>Társadalmi sokszínűség (etnikai, osztálybeli, stb.)</t>
-  </si>
-  <si>
-    <t>Környezeti benyomások (zaj, szmog, stb)</t>
+    <t>Társadalmi sokszínűség (etnikai / osztálybeli / más)</t>
+  </si>
+  <si>
+    <t>Környezeti benyomások (zaj / szmog / más)</t>
   </si>
   <si>
     <t>Közterület használata</t>
@@ -208,7 +208,7 @@
     <t>Utca változásai</t>
   </si>
   <si>
-    <t>Lakossági összetétel, közösségek</t>
+    <t>Lakossági összetétel / közösségek</t>
   </si>
   <si>
     <t>Közbiztonság és közterületi viselkedés</t>

--- a/Rév8-codes.xlsx
+++ b/Rév8-codes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Ideköltözés okai és körülményei</t>
   </si>
   <si>
-    <t>Kultúrális</t>
+    <t>Kulturális</t>
   </si>
   <si>
     <t>kerület vonzereje, közösségi kapcsolatok, történeti kötődés</t>
@@ -43,13 +43,10 @@
     <t>munkahely közelsége, metró, tömegközlekedés</t>
   </si>
   <si>
-    <t>Felszabaduló lakás</t>
+    <t>Családi / személyes okok</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Családi / személyes okok</t>
   </si>
   <si>
     <t>Vásárlás / boltok / szolgáltatások</t>
@@ -260,55 +257,55 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FF28d9c8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF84608B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF9e8400"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF6834B7"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFee695d"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF46B04F"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFa41508"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF8BC34A"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF6c6c6c"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFCDDC39"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF76C8EE"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFFF5C27"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FF1B1616"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF28d9c8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF84608B"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF9e8400"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF6834B7"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFee695d"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF46B04F"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFa41508"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF8BC34A"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF6c6c6c"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFCDDC39"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF76C8EE"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFFF5C27"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -754,7 +751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C55"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -825,18 +822,18 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,62 +866,62 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,23 +932,23 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>28</v>
+      <c r="A18" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -968,260 +965,260 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>48</v>
+      <c r="A34" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
         <v>56</v>
       </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,150 +1229,139 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
         <v>63</v>
       </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
